--- a/web/pns/ART_DAILY_FORM_Final v3_2019_07_15.xlsx
+++ b/web/pns/ART_DAILY_FORM_Final v3_2019_07_15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Cohorts\web\pns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA137D23-0E2A-4DC7-A493-74BCF8142FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B4CB6E-AC28-41AB-A84A-7B88F3FED533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="B/e0wCv1J46tEgueeFAu4BzmugEnHImrv29T4bYpk5JAj7k12UZ/O8U/MwsX/4k/uFWUik1L6Y/ME+G9wN9ylw==" workbookSaltValue="8rEJygEhTQJPMv5G+pnwgg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="216" xr2:uid="{1FCEBE06-7D9E-4F7E-9322-5102B9ED0A07}"/>
@@ -3265,21 +3265,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3301,9 +3286,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3320,45 +3302,18 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3378,27 +3333,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3407,12 +3341,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3425,15 +3353,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3463,50 +3382,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3521,12 +3407,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3545,6 +3425,57 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3557,14 +3488,83 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5069,2328 +5069,2322 @@
   <dimension ref="A1:CB53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="46" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="122" customWidth="1"/>
-    <col min="2" max="2" width="83.140625" style="127" customWidth="1"/>
-    <col min="3" max="27" width="6.85546875" style="43" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" style="43" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="57.7109375" style="44" customWidth="1"/>
-    <col min="30" max="16384" width="6.5703125" style="44"/>
+    <col min="1" max="1" width="8.7109375" style="83" customWidth="1"/>
+    <col min="2" max="2" width="83.140625" style="85" customWidth="1"/>
+    <col min="3" max="27" width="6.85546875" style="39" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" style="39" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="57.7109375" style="40" customWidth="1"/>
+    <col min="30" max="16384" width="6.5703125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:80" ht="27" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112"/>
-      <c r="B1" s="113"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
     </row>
     <row r="2" spans="1:80" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="42"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="1:80" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="114"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="77"/>
     </row>
     <row r="4" spans="1:80" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="55" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="115"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="78"/>
     </row>
     <row r="5" spans="1:80" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="str">
+      <c r="A5" s="90"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="95" t="str">
         <f>IF(ISERROR((RIGHT(B5,LEN(B5)- FIND("_",B5)))),"",(RIGHT(B5,LEN(B5)- FIND("_",B5))))</f>
         <v/>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="64" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="64" t="s">
+      <c r="Y5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z5" s="65" t="s">
+      <c r="Z5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="116"/>
+      <c r="AA5" s="79"/>
     </row>
     <row r="6" spans="1:80" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-    </row>
-    <row r="7" spans="1:80" s="78" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+    </row>
+    <row r="7" spans="1:80" s="57" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="73" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="73" t="s">
+      <c r="J7" s="101"/>
+      <c r="K7" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="73" t="s">
+      <c r="L7" s="101"/>
+      <c r="M7" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="N7" s="75"/>
-      <c r="O7" s="73" t="s">
+      <c r="N7" s="122"/>
+      <c r="O7" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="73" t="s">
+      <c r="P7" s="101"/>
+      <c r="Q7" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="R7" s="75"/>
-      <c r="S7" s="72" t="s">
+      <c r="R7" s="122"/>
+      <c r="S7" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="T7" s="72"/>
-      <c r="U7" s="73" t="s">
+      <c r="T7" s="99"/>
+      <c r="U7" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="V7" s="74"/>
-      <c r="W7" s="72" t="s">
+      <c r="V7" s="101"/>
+      <c r="W7" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72" t="s">
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="117" t="s">
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="128"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="128"/>
-      <c r="AG7" s="128"/>
-      <c r="AH7" s="128"/>
-      <c r="AI7" s="128"/>
-      <c r="AJ7" s="128"/>
-      <c r="AK7" s="128"/>
-      <c r="AL7" s="128"/>
-      <c r="AM7" s="128"/>
-      <c r="AN7" s="128"/>
-      <c r="AO7" s="128"/>
-      <c r="AP7" s="128"/>
-      <c r="AQ7" s="128"/>
-      <c r="AR7" s="128"/>
-      <c r="AS7" s="128"/>
-      <c r="AT7" s="128"/>
-      <c r="AU7" s="128"/>
-      <c r="AV7" s="128"/>
-      <c r="AW7" s="128"/>
-      <c r="AX7" s="128"/>
-      <c r="AY7" s="128"/>
-      <c r="AZ7" s="128"/>
-      <c r="BA7" s="128"/>
-      <c r="BB7" s="128"/>
-      <c r="BC7" s="128"/>
-      <c r="BD7" s="128"/>
-      <c r="BE7" s="128"/>
-      <c r="BF7" s="128"/>
-      <c r="BG7" s="128"/>
-      <c r="BH7" s="128"/>
-      <c r="BI7" s="128"/>
-      <c r="BJ7" s="128"/>
-      <c r="BK7" s="128"/>
-      <c r="BL7" s="128"/>
-      <c r="BM7" s="128"/>
-      <c r="BN7" s="128"/>
-      <c r="BO7" s="128"/>
-      <c r="BP7" s="128"/>
-      <c r="BQ7" s="128"/>
-      <c r="BR7" s="128"/>
-      <c r="BS7" s="128"/>
-      <c r="BT7" s="128"/>
-      <c r="BU7" s="128"/>
-      <c r="BV7" s="128"/>
-      <c r="BW7" s="128"/>
-      <c r="BX7" s="128"/>
-      <c r="BY7" s="128"/>
-      <c r="BZ7" s="128"/>
-      <c r="CA7" s="128"/>
-      <c r="CB7" s="128"/>
-    </row>
-    <row r="8" spans="1:80" s="78" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81" t="s">
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="86"/>
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="86"/>
+      <c r="AZ7" s="86"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="86"/>
+      <c r="BD7" s="86"/>
+      <c r="BE7" s="86"/>
+      <c r="BF7" s="86"/>
+      <c r="BG7" s="86"/>
+      <c r="BH7" s="86"/>
+      <c r="BI7" s="86"/>
+      <c r="BJ7" s="86"/>
+      <c r="BK7" s="86"/>
+      <c r="BL7" s="86"/>
+      <c r="BM7" s="86"/>
+      <c r="BN7" s="86"/>
+      <c r="BO7" s="86"/>
+      <c r="BP7" s="86"/>
+      <c r="BQ7" s="86"/>
+      <c r="BR7" s="86"/>
+      <c r="BS7" s="86"/>
+      <c r="BT7" s="86"/>
+      <c r="BU7" s="86"/>
+      <c r="BV7" s="86"/>
+      <c r="BW7" s="86"/>
+      <c r="BX7" s="86"/>
+      <c r="BY7" s="86"/>
+      <c r="BZ7" s="86"/>
+      <c r="CA7" s="86"/>
+      <c r="CB7" s="86"/>
+    </row>
+    <row r="8" spans="1:80" s="57" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="82" t="s">
+      <c r="L8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="81" t="s">
+      <c r="M8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="82" t="s">
+      <c r="N8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="81" t="s">
+      <c r="O8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="82" t="s">
+      <c r="P8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="81" t="s">
+      <c r="Q8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="82" t="s">
+      <c r="R8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="81" t="s">
+      <c r="S8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="T8" s="82" t="s">
+      <c r="T8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="81" t="s">
+      <c r="U8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="V8" s="82" t="s">
+      <c r="V8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="81" t="s">
+      <c r="W8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="X8" s="82" t="s">
+      <c r="X8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="Y8" s="81" t="s">
+      <c r="Y8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="Z8" s="83" t="s">
+      <c r="Z8" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="128"/>
-      <c r="AD8" s="128"/>
-      <c r="AE8" s="128"/>
-      <c r="AF8" s="128"/>
-      <c r="AG8" s="128"/>
-      <c r="AH8" s="128"/>
-      <c r="AI8" s="128"/>
-      <c r="AJ8" s="128"/>
-      <c r="AK8" s="128"/>
-      <c r="AL8" s="128"/>
-      <c r="AM8" s="128"/>
-      <c r="AN8" s="128"/>
-      <c r="AO8" s="128"/>
-      <c r="AP8" s="128"/>
-      <c r="AQ8" s="128"/>
-      <c r="AR8" s="128"/>
-      <c r="AS8" s="128"/>
-      <c r="AT8" s="128"/>
-      <c r="AU8" s="128"/>
-      <c r="AV8" s="128"/>
-      <c r="AW8" s="128"/>
-      <c r="AX8" s="128"/>
-      <c r="AY8" s="128"/>
-      <c r="AZ8" s="128"/>
-      <c r="BA8" s="128"/>
-      <c r="BB8" s="128"/>
-      <c r="BC8" s="128"/>
-      <c r="BD8" s="128"/>
-      <c r="BE8" s="128"/>
-      <c r="BF8" s="128"/>
-      <c r="BG8" s="128"/>
-      <c r="BH8" s="128"/>
-      <c r="BI8" s="128"/>
-      <c r="BJ8" s="128"/>
-      <c r="BK8" s="128"/>
-      <c r="BL8" s="128"/>
-      <c r="BM8" s="128"/>
-      <c r="BN8" s="128"/>
-      <c r="BO8" s="128"/>
-      <c r="BP8" s="128"/>
-      <c r="BQ8" s="128"/>
-      <c r="BR8" s="128"/>
-      <c r="BS8" s="128"/>
-      <c r="BT8" s="128"/>
-      <c r="BU8" s="128"/>
-      <c r="BV8" s="128"/>
-      <c r="BW8" s="128"/>
-      <c r="BX8" s="128"/>
-      <c r="BY8" s="128"/>
-      <c r="BZ8" s="128"/>
-      <c r="CA8" s="128"/>
-      <c r="CB8" s="128"/>
-    </row>
-    <row r="9" spans="1:80" s="78" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+      <c r="AI8" s="86"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="86"/>
+      <c r="AN8" s="86"/>
+      <c r="AO8" s="86"/>
+      <c r="AP8" s="86"/>
+      <c r="AQ8" s="86"/>
+      <c r="AR8" s="86"/>
+      <c r="AS8" s="86"/>
+      <c r="AT8" s="86"/>
+      <c r="AU8" s="86"/>
+      <c r="AV8" s="86"/>
+      <c r="AW8" s="86"/>
+      <c r="AX8" s="86"/>
+      <c r="AY8" s="86"/>
+      <c r="AZ8" s="86"/>
+      <c r="BA8" s="86"/>
+      <c r="BB8" s="86"/>
+      <c r="BC8" s="86"/>
+      <c r="BD8" s="86"/>
+      <c r="BE8" s="86"/>
+      <c r="BF8" s="86"/>
+      <c r="BG8" s="86"/>
+      <c r="BH8" s="86"/>
+      <c r="BI8" s="86"/>
+      <c r="BJ8" s="86"/>
+      <c r="BK8" s="86"/>
+      <c r="BL8" s="86"/>
+      <c r="BM8" s="86"/>
+      <c r="BN8" s="86"/>
+      <c r="BO8" s="86"/>
+      <c r="BP8" s="86"/>
+      <c r="BQ8" s="86"/>
+      <c r="BR8" s="86"/>
+      <c r="BS8" s="86"/>
+      <c r="BT8" s="86"/>
+      <c r="BU8" s="86"/>
+      <c r="BV8" s="86"/>
+      <c r="BW8" s="86"/>
+      <c r="BX8" s="86"/>
+      <c r="BY8" s="86"/>
+      <c r="BZ8" s="86"/>
+      <c r="CA8" s="86"/>
+      <c r="CB8" s="86"/>
+    </row>
+    <row r="9" spans="1:80" s="57" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="88" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="128"/>
-      <c r="AF9" s="128"/>
-      <c r="AG9" s="128"/>
-      <c r="AH9" s="128"/>
-      <c r="AI9" s="128"/>
-      <c r="AJ9" s="128"/>
-      <c r="AK9" s="128"/>
-      <c r="AL9" s="128"/>
-      <c r="AM9" s="128"/>
-      <c r="AN9" s="128"/>
-      <c r="AO9" s="128"/>
-      <c r="AP9" s="128"/>
-      <c r="AQ9" s="128"/>
-      <c r="AR9" s="128"/>
-      <c r="AS9" s="128"/>
-      <c r="AT9" s="128"/>
-      <c r="AU9" s="128"/>
-      <c r="AV9" s="128"/>
-      <c r="AW9" s="128"/>
-      <c r="AX9" s="128"/>
-      <c r="AY9" s="128"/>
-      <c r="AZ9" s="128"/>
-      <c r="BA9" s="128"/>
-      <c r="BB9" s="128"/>
-      <c r="BC9" s="128"/>
-      <c r="BD9" s="128"/>
-      <c r="BE9" s="128"/>
-      <c r="BF9" s="128"/>
-      <c r="BG9" s="128"/>
-      <c r="BH9" s="128"/>
-      <c r="BI9" s="128"/>
-      <c r="BJ9" s="128"/>
-      <c r="BK9" s="128"/>
-      <c r="BL9" s="128"/>
-      <c r="BM9" s="128"/>
-      <c r="BN9" s="128"/>
-      <c r="BO9" s="128"/>
-      <c r="BP9" s="128"/>
-      <c r="BQ9" s="128"/>
-      <c r="BR9" s="128"/>
-      <c r="BS9" s="128"/>
-      <c r="BT9" s="128"/>
-      <c r="BU9" s="128"/>
-      <c r="BV9" s="128"/>
-      <c r="BW9" s="128"/>
-      <c r="BX9" s="128"/>
-      <c r="BY9" s="128"/>
-      <c r="BZ9" s="128"/>
-      <c r="CA9" s="128"/>
-      <c r="CB9" s="128"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="86"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="86"/>
+      <c r="AQ9" s="86"/>
+      <c r="AR9" s="86"/>
+      <c r="AS9" s="86"/>
+      <c r="AT9" s="86"/>
+      <c r="AU9" s="86"/>
+      <c r="AV9" s="86"/>
+      <c r="AW9" s="86"/>
+      <c r="AX9" s="86"/>
+      <c r="AY9" s="86"/>
+      <c r="AZ9" s="86"/>
+      <c r="BA9" s="86"/>
+      <c r="BB9" s="86"/>
+      <c r="BC9" s="86"/>
+      <c r="BD9" s="86"/>
+      <c r="BE9" s="86"/>
+      <c r="BF9" s="86"/>
+      <c r="BG9" s="86"/>
+      <c r="BH9" s="86"/>
+      <c r="BI9" s="86"/>
+      <c r="BJ9" s="86"/>
+      <c r="BK9" s="86"/>
+      <c r="BL9" s="86"/>
+      <c r="BM9" s="86"/>
+      <c r="BN9" s="86"/>
+      <c r="BO9" s="86"/>
+      <c r="BP9" s="86"/>
+      <c r="BQ9" s="86"/>
+      <c r="BR9" s="86"/>
+      <c r="BS9" s="86"/>
+      <c r="BT9" s="86"/>
+      <c r="BU9" s="86"/>
+      <c r="BV9" s="86"/>
+      <c r="BW9" s="86"/>
+      <c r="BX9" s="86"/>
+      <c r="BY9" s="86"/>
+      <c r="BZ9" s="86"/>
+      <c r="CA9" s="86"/>
+      <c r="CB9" s="86"/>
     </row>
     <row r="10" spans="1:80" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90">
+      <c r="A10" s="64">
         <v>1</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="93" t="str">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="67" t="str">
         <f>IF(SUMPRODUCT(--(C10:Z10&lt;&gt;""))=0,"",SUM(C10:Z10))</f>
         <v/>
       </c>
-      <c r="AB10" s="94">
+      <c r="AB10" s="68">
         <v>1</v>
       </c>
-      <c r="AC10" s="95"/>
+      <c r="AC10" s="69"/>
     </row>
     <row r="11" spans="1:80" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90">
+      <c r="A11" s="64">
         <f>IF(ISERROR((A10+1)),"",(A10+1))</f>
         <v>2</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="93" t="str">
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67" t="str">
         <f t="shared" ref="AA11:AA51" si="0">IF(SUMPRODUCT(--(C11:Z11&lt;&gt;""))=0,"",SUM(C11:Z11))</f>
         <v/>
       </c>
-      <c r="AB11" s="94">
+      <c r="AB11" s="68">
         <v>2</v>
       </c>
-      <c r="AC11" s="119" t="str">
+      <c r="AC11" s="80" t="str">
         <f>IF(AA11&gt;AA10,"Clients who Kept Appointments should not be more than Clients booked for appointments","")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:80" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90">
+      <c r="A12" s="64">
         <f t="shared" ref="A12:A21" si="1">IF(ISERROR((A11+1)),"",(A11+1))</f>
         <v>3</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="93" t="str">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB12" s="94">
+      <c r="AB12" s="68">
         <v>3</v>
       </c>
-      <c r="AC12" s="95"/>
+      <c r="AC12" s="69"/>
     </row>
     <row r="13" spans="1:80" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90">
+      <c r="A13" s="64">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="93" t="str">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB13" s="94">
+      <c r="AB13" s="68">
         <v>4</v>
       </c>
-      <c r="AC13" s="95"/>
+      <c r="AC13" s="69"/>
     </row>
     <row r="14" spans="1:80" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90">
+      <c r="A14" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="93" t="str">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB14" s="94">
+      <c r="AB14" s="68">
         <v>5</v>
       </c>
-      <c r="AC14" s="95"/>
+      <c r="AC14" s="69"/>
     </row>
     <row r="15" spans="1:80" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+      <c r="A15" s="64">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="93" t="str">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="67" t="str">
         <f>IF(SUMPRODUCT(--(C15:Z15&lt;&gt;""))=0,"",SUM(C15:Z15))</f>
         <v/>
       </c>
-      <c r="AB15" s="94">
+      <c r="AB15" s="68">
         <v>6</v>
       </c>
-      <c r="AC15" s="95"/>
+      <c r="AC15" s="69"/>
     </row>
     <row r="16" spans="1:80" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90">
+      <c r="A16" s="64">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="93" t="str">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB16" s="94">
+      <c r="AB16" s="68">
         <v>7</v>
       </c>
-      <c r="AC16" s="95"/>
+      <c r="AC16" s="69"/>
     </row>
     <row r="17" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90">
+      <c r="A17" s="64">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="93" t="str">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB17" s="96">
+      <c r="AB17" s="70">
         <v>28</v>
       </c>
-      <c r="AC17" s="95"/>
+      <c r="AC17" s="69"/>
     </row>
     <row r="18" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90">
+      <c r="A18" s="64">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="93" t="str">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB18" s="96">
+      <c r="AB18" s="70">
         <v>29</v>
       </c>
-      <c r="AC18" s="95"/>
+      <c r="AC18" s="69"/>
     </row>
     <row r="19" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90">
+      <c r="A19" s="64">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="93" t="str">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB19" s="96">
+      <c r="AB19" s="70">
         <v>30</v>
       </c>
-      <c r="AC19" s="95"/>
+      <c r="AC19" s="69"/>
     </row>
     <row r="20" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90">
+      <c r="A20" s="64">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="93" t="str">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB20" s="96">
+      <c r="AB20" s="70">
         <v>31</v>
       </c>
-      <c r="AC20" s="95"/>
+      <c r="AC20" s="69"/>
     </row>
     <row r="21" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90">
+      <c r="A21" s="64">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="93" t="str">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB21" s="94">
+      <c r="AB21" s="68">
         <v>24</v>
       </c>
-      <c r="AC21" s="95"/>
-    </row>
-    <row r="22" spans="1:29" s="120" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="97" t="s">
+      <c r="AC21" s="69"/>
+    </row>
+    <row r="22" spans="1:29" s="81" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64"/>
+      <c r="B22" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="100" t="s">
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="112"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AC22" s="101"/>
-    </row>
-    <row r="23" spans="1:29" s="120" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="90">
+      <c r="AC22" s="72"/>
+    </row>
+    <row r="23" spans="1:29" s="81" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
         <v>14</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="93" t="str">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB23" s="100">
+      <c r="AB23" s="71">
         <v>25</v>
       </c>
-      <c r="AC23" s="101"/>
+      <c r="AC23" s="72"/>
     </row>
     <row r="24" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90">
+      <c r="A24" s="64">
         <f t="shared" ref="A24:A34" si="2">IF(ISERROR((A23+1)),"",(A23+1))</f>
         <v>15</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="93" t="str">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB24" s="94">
+      <c r="AB24" s="68">
         <v>8</v>
       </c>
-      <c r="AC24" s="95"/>
+      <c r="AC24" s="69"/>
     </row>
     <row r="25" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90">
+      <c r="A25" s="64">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="93" t="str">
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB25" s="94">
+      <c r="AB25" s="68">
         <v>9</v>
       </c>
-      <c r="AC25" s="95"/>
+      <c r="AC25" s="69"/>
     </row>
     <row r="26" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90">
+      <c r="A26" s="64">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="93" t="str">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB26" s="94">
+      <c r="AB26" s="68">
         <v>10</v>
       </c>
-      <c r="AC26" s="95"/>
+      <c r="AC26" s="69"/>
     </row>
     <row r="27" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90">
+      <c r="A27" s="64">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="93" t="str">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB27" s="94">
+      <c r="AB27" s="68">
         <v>12</v>
       </c>
-      <c r="AC27" s="95"/>
+      <c r="AC27" s="69"/>
     </row>
     <row r="28" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90">
+      <c r="A28" s="64">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="93" t="str">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB28" s="94">
+      <c r="AB28" s="68">
         <v>13</v>
       </c>
-      <c r="AC28" s="95"/>
+      <c r="AC28" s="69"/>
     </row>
     <row r="29" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90">
+      <c r="A29" s="64">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="93" t="str">
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB29" s="96">
+      <c r="AB29" s="70">
         <v>32</v>
       </c>
-      <c r="AC29" s="95"/>
+      <c r="AC29" s="69"/>
     </row>
     <row r="30" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90">
+      <c r="A30" s="64">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="93" t="str">
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB30" s="96">
+      <c r="AB30" s="70">
         <v>33</v>
       </c>
-      <c r="AC30" s="95"/>
+      <c r="AC30" s="69"/>
     </row>
     <row r="31" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90">
+      <c r="A31" s="64">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="93" t="str">
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB31" s="96">
+      <c r="AB31" s="70">
         <v>34</v>
       </c>
-      <c r="AC31" s="95"/>
-    </row>
-    <row r="32" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="90">
+      <c r="AC31" s="69"/>
+    </row>
+    <row r="32" spans="1:29" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="64">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="93" t="str">
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB32" s="94">
+      <c r="AB32" s="68">
         <v>11</v>
       </c>
-      <c r="AC32" s="95"/>
+      <c r="AC32" s="69"/>
     </row>
     <row r="33" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="90">
+      <c r="A33" s="64">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="93" t="str">
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB33" s="96">
+      <c r="AB33" s="70">
         <v>35</v>
       </c>
-      <c r="AC33" s="95"/>
+      <c r="AC33" s="69"/>
     </row>
     <row r="34" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90">
+      <c r="A34" s="64">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="93" t="str">
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB34" s="96">
+      <c r="AB34" s="70">
         <v>36</v>
       </c>
-      <c r="AC34" s="95"/>
+      <c r="AC34" s="69"/>
     </row>
     <row r="35" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90"/>
-      <c r="B35" s="102" t="s">
+      <c r="A35" s="64"/>
+      <c r="B35" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="105" t="s">
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="116"/>
+      <c r="AB35" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="AC35" s="95"/>
+      <c r="AC35" s="69"/>
     </row>
     <row r="36" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90">
+      <c r="A36" s="64">
         <v>26</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="92"/>
-      <c r="V36" s="92"/>
-      <c r="W36" s="92"/>
-      <c r="X36" s="92"/>
-      <c r="Y36" s="92"/>
-      <c r="Z36" s="92"/>
-      <c r="AA36" s="121" t="str">
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="82" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB36" s="94">
+      <c r="AB36" s="68">
         <v>14</v>
       </c>
-      <c r="AC36" s="95"/>
+      <c r="AC36" s="69"/>
     </row>
     <row r="37" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90">
+      <c r="A37" s="64">
         <f t="shared" ref="A37:A51" si="3">IF(ISERROR((A36+1)),"",(A36+1))</f>
         <v>27</v>
       </c>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="92"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="92"/>
-      <c r="Z37" s="92"/>
-      <c r="AA37" s="93" t="str">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB37" s="94">
+      <c r="AB37" s="68">
         <v>15</v>
       </c>
-      <c r="AC37" s="95"/>
+      <c r="AC37" s="69"/>
     </row>
     <row r="38" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="90">
+      <c r="A38" s="64">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="92"/>
-      <c r="V38" s="92"/>
-      <c r="W38" s="92"/>
-      <c r="X38" s="92"/>
-      <c r="Y38" s="92"/>
-      <c r="Z38" s="92"/>
-      <c r="AA38" s="93" t="str">
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB38" s="94">
+      <c r="AB38" s="68">
         <v>16</v>
       </c>
-      <c r="AC38" s="95"/>
+      <c r="AC38" s="69"/>
     </row>
     <row r="39" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90">
+      <c r="A39" s="64">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="X39" s="92"/>
-      <c r="Y39" s="92"/>
-      <c r="Z39" s="92"/>
-      <c r="AA39" s="93" t="str">
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB39" s="96">
+      <c r="AB39" s="70">
         <v>37</v>
       </c>
-      <c r="AC39" s="95"/>
+      <c r="AC39" s="69"/>
     </row>
     <row r="40" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90">
+      <c r="A40" s="64">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="93" t="str">
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB40" s="94">
+      <c r="AB40" s="68">
         <v>26</v>
       </c>
-      <c r="AC40" s="95"/>
+      <c r="AC40" s="69"/>
     </row>
     <row r="41" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="90">
+      <c r="A41" s="64">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="92"/>
-      <c r="U41" s="92"/>
-      <c r="V41" s="92"/>
-      <c r="W41" s="92"/>
-      <c r="X41" s="92"/>
-      <c r="Y41" s="92"/>
-      <c r="Z41" s="92"/>
-      <c r="AA41" s="93" t="str">
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB41" s="94">
+      <c r="AB41" s="68">
         <v>27</v>
       </c>
-      <c r="AC41" s="95"/>
+      <c r="AC41" s="69"/>
     </row>
     <row r="42" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="90">
+      <c r="A42" s="64">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="92"/>
-      <c r="U42" s="92"/>
-      <c r="V42" s="92"/>
-      <c r="W42" s="92"/>
-      <c r="X42" s="92"/>
-      <c r="Y42" s="92"/>
-      <c r="Z42" s="92"/>
-      <c r="AA42" s="93" t="str">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB42" s="96">
+      <c r="AB42" s="70">
         <v>38</v>
       </c>
-      <c r="AC42" s="95"/>
+      <c r="AC42" s="69"/>
     </row>
     <row r="43" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="90" t="str">
+      <c r="A43" s="64" t="str">
         <f>IF(ISERROR((#REF!+1)),"",(#REF!+1))</f>
         <v/>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="92"/>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="92"/>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="93" t="str">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB43" s="96">
+      <c r="AB43" s="70">
         <v>39</v>
       </c>
-      <c r="AC43" s="95"/>
+      <c r="AC43" s="69"/>
     </row>
     <row r="44" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="90" t="str">
+      <c r="A44" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="121"/>
-      <c r="N44" s="121"/>
-      <c r="O44" s="121"/>
-      <c r="P44" s="121"/>
-      <c r="Q44" s="121"/>
-      <c r="R44" s="121"/>
-      <c r="S44" s="121"/>
-      <c r="T44" s="121"/>
-      <c r="U44" s="121"/>
-      <c r="V44" s="121"/>
-      <c r="W44" s="121"/>
-      <c r="X44" s="121"/>
-      <c r="Y44" s="121"/>
-      <c r="Z44" s="121"/>
-      <c r="AA44" s="93" t="str">
+      <c r="C44" s="82"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="82"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82"/>
+      <c r="R44" s="82"/>
+      <c r="S44" s="82"/>
+      <c r="T44" s="82"/>
+      <c r="U44" s="82"/>
+      <c r="V44" s="82"/>
+      <c r="W44" s="82"/>
+      <c r="X44" s="82"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB44" s="94">
+      <c r="AB44" s="68">
         <v>17</v>
       </c>
-      <c r="AC44" s="95"/>
+      <c r="AC44" s="69"/>
     </row>
     <row r="45" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="90" t="str">
+      <c r="A45" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="65" t="s">
         <v>775</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="93" t="str">
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB45" s="94">
+      <c r="AB45" s="68">
         <v>18</v>
       </c>
-      <c r="AC45" s="95"/>
+      <c r="AC45" s="69"/>
     </row>
     <row r="46" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="90" t="str">
+      <c r="A46" s="64" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="92"/>
-      <c r="U46" s="92"/>
-      <c r="V46" s="92"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="92"/>
-      <c r="Y46" s="92"/>
-      <c r="Z46" s="92"/>
-      <c r="AA46" s="93" t="str">
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="66"/>
+      <c r="X46" s="66"/>
+      <c r="Y46" s="66"/>
+      <c r="Z46" s="66"/>
+      <c r="AA46" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB46" s="94">
+      <c r="AB46" s="68">
         <v>19</v>
       </c>
-      <c r="AC46" s="95"/>
+      <c r="AC46" s="69"/>
     </row>
     <row r="47" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
-      <c r="B47" s="106" t="s">
+      <c r="A47" s="64"/>
+      <c r="B47" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
-      <c r="O47" s="107"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="107"/>
-      <c r="U47" s="107"/>
-      <c r="V47" s="107"/>
-      <c r="W47" s="107"/>
-      <c r="X47" s="107"/>
-      <c r="Y47" s="107"/>
-      <c r="Z47" s="107"/>
-      <c r="AA47" s="108"/>
-      <c r="AB47" s="105" t="s">
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="118"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="118"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="118"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="118"/>
+      <c r="X47" s="118"/>
+      <c r="Y47" s="118"/>
+      <c r="Z47" s="118"/>
+      <c r="AA47" s="119"/>
+      <c r="AB47" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AC47" s="95"/>
+      <c r="AC47" s="69"/>
     </row>
     <row r="48" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="90">
+      <c r="A48" s="64">
         <v>44</v>
       </c>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="65" t="s">
         <v>776</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92"/>
-      <c r="P48" s="92"/>
-      <c r="Q48" s="92"/>
-      <c r="R48" s="92"/>
-      <c r="S48" s="92"/>
-      <c r="T48" s="92"/>
-      <c r="U48" s="92"/>
-      <c r="V48" s="92"/>
-      <c r="W48" s="92"/>
-      <c r="X48" s="92"/>
-      <c r="Y48" s="92"/>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="121" t="str">
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="82" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB48" s="94">
+      <c r="AB48" s="68">
         <v>20</v>
       </c>
-      <c r="AC48" s="95"/>
+      <c r="AC48" s="69"/>
     </row>
     <row r="49" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="90">
+      <c r="A49" s="64">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="65" t="s">
         <v>777</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="92"/>
-      <c r="N49" s="92"/>
-      <c r="O49" s="92"/>
-      <c r="P49" s="92"/>
-      <c r="Q49" s="92"/>
-      <c r="R49" s="92"/>
-      <c r="S49" s="92"/>
-      <c r="T49" s="92"/>
-      <c r="U49" s="92"/>
-      <c r="V49" s="92"/>
-      <c r="W49" s="92"/>
-      <c r="X49" s="92"/>
-      <c r="Y49" s="92"/>
-      <c r="Z49" s="92"/>
-      <c r="AA49" s="93" t="str">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="66"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="66"/>
+      <c r="W49" s="66"/>
+      <c r="X49" s="66"/>
+      <c r="Y49" s="66"/>
+      <c r="Z49" s="66"/>
+      <c r="AA49" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB49" s="94">
+      <c r="AB49" s="68">
         <v>21</v>
       </c>
-      <c r="AC49" s="95"/>
+      <c r="AC49" s="69"/>
     </row>
     <row r="50" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="90">
+      <c r="A50" s="64">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="92"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="92"/>
-      <c r="P50" s="92"/>
-      <c r="Q50" s="92"/>
-      <c r="R50" s="92"/>
-      <c r="S50" s="92"/>
-      <c r="T50" s="92"/>
-      <c r="U50" s="92"/>
-      <c r="V50" s="92"/>
-      <c r="W50" s="92"/>
-      <c r="X50" s="92"/>
-      <c r="Y50" s="92"/>
-      <c r="Z50" s="92"/>
-      <c r="AA50" s="93" t="str">
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="66"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="66"/>
+      <c r="X50" s="66"/>
+      <c r="Y50" s="66"/>
+      <c r="Z50" s="66"/>
+      <c r="AA50" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB50" s="94">
+      <c r="AB50" s="68">
         <v>22</v>
       </c>
-      <c r="AC50" s="95"/>
+      <c r="AC50" s="69"/>
     </row>
     <row r="51" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="90">
+      <c r="A51" s="64">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="92"/>
-      <c r="P51" s="92"/>
-      <c r="Q51" s="92"/>
-      <c r="R51" s="92"/>
-      <c r="S51" s="92"/>
-      <c r="T51" s="92"/>
-      <c r="U51" s="92"/>
-      <c r="V51" s="92"/>
-      <c r="W51" s="92"/>
-      <c r="X51" s="92"/>
-      <c r="Y51" s="92"/>
-      <c r="Z51" s="92"/>
-      <c r="AA51" s="93" t="str">
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
+      <c r="T51" s="66"/>
+      <c r="U51" s="66"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="66"/>
+      <c r="X51" s="66"/>
+      <c r="Y51" s="66"/>
+      <c r="Z51" s="66"/>
+      <c r="AA51" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB51" s="94">
+      <c r="AB51" s="68">
         <v>23</v>
       </c>
-      <c r="AC51" s="95" t="str">
+      <c r="AC51" s="69" t="str">
         <f>IF(AA51&gt;AA49,"VL Suppressed should not be more than VL Done","")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:29" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
-      <c r="B52" s="109" t="s">
+      <c r="A52" s="64"/>
+      <c r="B52" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="110" t="s">
+      <c r="C52" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="107"/>
-      <c r="N52" s="107"/>
-      <c r="O52" s="107"/>
-      <c r="P52" s="107"/>
-      <c r="Q52" s="107"/>
-      <c r="R52" s="107"/>
-      <c r="S52" s="107"/>
-      <c r="T52" s="107"/>
-      <c r="U52" s="107"/>
-      <c r="V52" s="107"/>
-      <c r="W52" s="107"/>
-      <c r="X52" s="107"/>
-      <c r="Y52" s="107"/>
-      <c r="Z52" s="107"/>
-      <c r="AA52" s="111"/>
-      <c r="AB52" s="94"/>
-      <c r="AC52" s="95"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="118"/>
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="118"/>
+      <c r="V52" s="118"/>
+      <c r="W52" s="118"/>
+      <c r="X52" s="118"/>
+      <c r="Y52" s="118"/>
+      <c r="Z52" s="118"/>
+      <c r="AA52" s="121"/>
+      <c r="AB52" s="68"/>
+      <c r="AC52" s="69"/>
     </row>
     <row r="53" spans="1:29" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="123"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="125"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="125"/>
-      <c r="O53" s="125"/>
-      <c r="P53" s="125"/>
-      <c r="Q53" s="125"/>
-      <c r="R53" s="125"/>
-      <c r="S53" s="125"/>
-      <c r="T53" s="125"/>
-      <c r="U53" s="125"/>
-      <c r="V53" s="125"/>
-      <c r="W53" s="125"/>
-      <c r="X53" s="125"/>
-      <c r="Y53" s="125"/>
-      <c r="Z53" s="125"/>
-      <c r="AA53" s="126"/>
-      <c r="AB53" s="105"/>
-      <c r="AC53" s="95"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="103"/>
+      <c r="H53" s="103"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="103"/>
+      <c r="K53" s="103"/>
+      <c r="L53" s="103"/>
+      <c r="M53" s="103"/>
+      <c r="N53" s="103"/>
+      <c r="O53" s="103"/>
+      <c r="P53" s="103"/>
+      <c r="Q53" s="103"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="103"/>
+      <c r="T53" s="103"/>
+      <c r="U53" s="103"/>
+      <c r="V53" s="103"/>
+      <c r="W53" s="103"/>
+      <c r="X53" s="103"/>
+      <c r="Y53" s="103"/>
+      <c r="Z53" s="103"/>
+      <c r="AA53" s="104"/>
+      <c r="AB53" s="73"/>
+      <c r="AC53" s="69"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="3TSZT0+jCS2gsp4CLH/DIfOnbpPeoAP7JBwxwW9+OAt1duqjc97xMXKTkB2hXw4jdcfl2vwQ7mJ3zd9mSUbMRQ==" saltValue="+iRYhpUKnHu/dk+Wd5mYIg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="26">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:W5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="C53:AA53"/>
     <mergeCell ref="AA7:AA8"/>
     <mergeCell ref="C6:AA6"/>
@@ -7407,6 +7401,16 @@
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
     <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:W5"/>
   </mergeCells>
   <conditionalFormatting sqref="C23:Z23">
     <cfRule type="notContainsBlanks" dxfId="39" priority="7">
@@ -7481,7 +7485,11 @@
   <dimension ref="A1:AC53"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="87" zoomScaleNormal="87" zoomScaleSheetLayoutView="46" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7525,2133 +7533,2146 @@
       <c r="AA1" s="25"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="44"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="40"/>
     </row>
     <row r="3" spans="1:29" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="48"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="44"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="40"/>
     </row>
     <row r="4" spans="1:29" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="55" t="s">
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="44"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="40"/>
     </row>
     <row r="5" spans="1:29" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="60" t="str">
+      <c r="A5" s="90"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="95" t="str">
         <f>IF(ISERROR((RIGHT(B5,LEN(B5)- FIND("_",B5)))),"",(RIGHT(B5,LEN(B5)- FIND("_",B5))))</f>
         <v/>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="64" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="96"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="64" t="s">
+      <c r="Y5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="Z5" s="65" t="s">
+      <c r="Z5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="44"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="40"/>
     </row>
     <row r="6" spans="1:29" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="69"/>
-      <c r="X6" s="69"/>
-      <c r="Y6" s="69"/>
-      <c r="Z6" s="69"/>
-      <c r="AA6" s="69"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="44"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="107"/>
+      <c r="R6" s="107"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="107"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="107"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="40"/>
     </row>
     <row r="7" spans="1:29" s="26" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72" t="s">
+      <c r="B7" s="124"/>
+      <c r="C7" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="100" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="73" t="s">
+      <c r="F7" s="101"/>
+      <c r="G7" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="73" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="J7" s="74"/>
-      <c r="K7" s="73" t="s">
+      <c r="J7" s="101"/>
+      <c r="K7" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="73" t="s">
+      <c r="L7" s="101"/>
+      <c r="M7" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="N7" s="75"/>
-      <c r="O7" s="73" t="s">
+      <c r="N7" s="122"/>
+      <c r="O7" s="100" t="s">
         <v>203</v>
       </c>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="73" t="s">
+      <c r="P7" s="101"/>
+      <c r="Q7" s="100" t="s">
         <v>204</v>
       </c>
-      <c r="R7" s="75"/>
-      <c r="S7" s="72" t="s">
+      <c r="R7" s="122"/>
+      <c r="S7" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="T7" s="72"/>
-      <c r="U7" s="73" t="s">
+      <c r="T7" s="99"/>
+      <c r="U7" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="V7" s="74"/>
-      <c r="W7" s="72" t="s">
+      <c r="V7" s="101"/>
+      <c r="W7" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72" t="s">
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99" t="s">
         <v>208</v>
       </c>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="78"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="57"/>
     </row>
     <row r="8" spans="1:29" s="26" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81" t="s">
+      <c r="A8" s="125"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="82" t="s">
+      <c r="L8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="81" t="s">
+      <c r="M8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="N8" s="82" t="s">
+      <c r="N8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="O8" s="81" t="s">
+      <c r="O8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="82" t="s">
+      <c r="P8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="Q8" s="81" t="s">
+      <c r="Q8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="R8" s="82" t="s">
+      <c r="R8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="81" t="s">
+      <c r="S8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="T8" s="82" t="s">
+      <c r="T8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="U8" s="81" t="s">
+      <c r="U8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="V8" s="82" t="s">
+      <c r="V8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="W8" s="81" t="s">
+      <c r="W8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="X8" s="82" t="s">
+      <c r="X8" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="Y8" s="81" t="s">
+      <c r="Y8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="Z8" s="83" t="s">
+      <c r="Z8" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AA8" s="82" t="s">
+      <c r="AA8" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="78"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="57"/>
     </row>
     <row r="9" spans="1:29" s="26" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
-      <c r="U9" s="86"/>
-      <c r="V9" s="86"/>
-      <c r="W9" s="86"/>
-      <c r="X9" s="86"/>
-      <c r="Y9" s="86"/>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="88" t="s">
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="AC9" s="89"/>
+      <c r="AC9" s="63"/>
     </row>
     <row r="10" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="90">
+      <c r="A10" s="64">
         <v>1</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="93" t="str">
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="67" t="str">
         <f>IF(SUMPRODUCT(--(C10:Z10&lt;&gt;""))=0,"",SUM(C10:Z10))</f>
         <v/>
       </c>
-      <c r="AB10" s="94">
+      <c r="AB10" s="68">
         <v>1</v>
       </c>
-      <c r="AC10" s="95"/>
+      <c r="AC10" s="69"/>
     </row>
     <row r="11" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="90">
+      <c r="A11" s="64">
         <f>IF(ISERROR((A10+1)),"",(A10+1))</f>
         <v>2</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="93" t="str">
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
+      <c r="AA11" s="67" t="str">
         <f t="shared" ref="AA11:AA51" si="0">IF(SUMPRODUCT(--(C11:Z11&lt;&gt;""))=0,"",SUM(C11:Z11))</f>
         <v/>
       </c>
-      <c r="AB11" s="94">
+      <c r="AB11" s="68">
         <v>2</v>
       </c>
-      <c r="AC11" s="95"/>
+      <c r="AC11" s="69"/>
     </row>
     <row r="12" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90">
+      <c r="A12" s="64">
         <f t="shared" ref="A12:A21" si="1">IF(ISERROR((A11+1)),"",(A11+1))</f>
         <v>3</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="92"/>
-      <c r="W12" s="92"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="93" t="str">
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB12" s="94">
+      <c r="AB12" s="68">
         <v>3</v>
       </c>
-      <c r="AC12" s="95"/>
+      <c r="AC12" s="69"/>
     </row>
     <row r="13" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90">
+      <c r="A13" s="64">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="93" t="str">
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB13" s="94">
+      <c r="AB13" s="68">
         <v>4</v>
       </c>
-      <c r="AC13" s="95"/>
+      <c r="AC13" s="69"/>
     </row>
     <row r="14" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90">
+      <c r="A14" s="64">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="92"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="92"/>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
-      <c r="T14" s="92"/>
-      <c r="U14" s="92"/>
-      <c r="V14" s="92"/>
-      <c r="W14" s="92"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="92"/>
-      <c r="Z14" s="92"/>
-      <c r="AA14" s="93" t="str">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB14" s="94">
+      <c r="AB14" s="68">
         <v>5</v>
       </c>
-      <c r="AC14" s="95"/>
+      <c r="AC14" s="69"/>
     </row>
     <row r="15" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+      <c r="A15" s="64">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="92"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="92"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="92"/>
-      <c r="S15" s="92"/>
-      <c r="T15" s="92"/>
-      <c r="U15" s="92"/>
-      <c r="V15" s="92"/>
-      <c r="W15" s="92"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="93" t="str">
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB15" s="94">
+      <c r="AB15" s="68">
         <v>6</v>
       </c>
-      <c r="AC15" s="95"/>
+      <c r="AC15" s="69"/>
     </row>
     <row r="16" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90">
+      <c r="A16" s="64">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="92"/>
-      <c r="Q16" s="92"/>
-      <c r="R16" s="92"/>
-      <c r="S16" s="92"/>
-      <c r="T16" s="92"/>
-      <c r="U16" s="92"/>
-      <c r="V16" s="92"/>
-      <c r="W16" s="92"/>
-      <c r="X16" s="92"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="92"/>
-      <c r="AA16" s="93" t="str">
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="66"/>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB16" s="94">
+      <c r="AB16" s="68">
         <v>7</v>
       </c>
-      <c r="AC16" s="95"/>
+      <c r="AC16" s="69"/>
     </row>
     <row r="17" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90">
+      <c r="A17" s="64">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B17" s="91" t="s">
+      <c r="B17" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="92"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="92"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="93" t="str">
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
+      <c r="Q17" s="66"/>
+      <c r="R17" s="66"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="66"/>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB17" s="96">
+      <c r="AB17" s="70">
         <v>28</v>
       </c>
-      <c r="AC17" s="95"/>
+      <c r="AC17" s="69"/>
     </row>
     <row r="18" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90">
+      <c r="A18" s="64">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="92"/>
-      <c r="Q18" s="92"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="93" t="str">
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
+      <c r="AA18" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB18" s="96">
+      <c r="AB18" s="70">
         <v>29</v>
       </c>
-      <c r="AC18" s="95"/>
+      <c r="AC18" s="69"/>
     </row>
     <row r="19" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="90">
+      <c r="A19" s="64">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="93" t="str">
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB19" s="96">
+      <c r="AB19" s="70">
         <v>30</v>
       </c>
-      <c r="AC19" s="95"/>
+      <c r="AC19" s="69"/>
     </row>
     <row r="20" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90">
+      <c r="A20" s="64">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="92"/>
-      <c r="Q20" s="92"/>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="92"/>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="93" t="str">
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB20" s="96">
+      <c r="AB20" s="70">
         <v>31</v>
       </c>
-      <c r="AC20" s="95"/>
+      <c r="AC20" s="69"/>
     </row>
     <row r="21" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90">
+      <c r="A21" s="64">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="93" t="str">
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="U21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB21" s="94">
+      <c r="AB21" s="68">
         <v>24</v>
       </c>
-      <c r="AC21" s="95"/>
+      <c r="AC21" s="69"/>
     </row>
     <row r="22" spans="1:29" s="22" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="99"/>
-      <c r="AB22" s="100" t="s">
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="112"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AC22" s="101"/>
+      <c r="AC22" s="72"/>
     </row>
     <row r="23" spans="1:29" s="22" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="90">
+      <c r="A23" s="64">
         <v>13</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
-      <c r="R23" s="92"/>
-      <c r="S23" s="92"/>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="93" t="str">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB23" s="100">
+      <c r="AB23" s="71">
         <v>25</v>
       </c>
-      <c r="AC23" s="101"/>
+      <c r="AC23" s="72"/>
     </row>
     <row r="24" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90">
+      <c r="A24" s="64">
         <f t="shared" ref="A24:A34" si="2">IF(ISERROR((A23+1)),"",(A23+1))</f>
         <v>14</v>
       </c>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="65" t="s">
         <v>774</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="92"/>
-      <c r="R24" s="92"/>
-      <c r="S24" s="92"/>
-      <c r="T24" s="92"/>
-      <c r="U24" s="92"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="92"/>
-      <c r="AA24" s="93" t="str">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB24" s="94">
+      <c r="AB24" s="68">
         <v>8</v>
       </c>
-      <c r="AC24" s="95"/>
+      <c r="AC24" s="69"/>
     </row>
     <row r="25" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="90">
+      <c r="A25" s="64">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="93" t="str">
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB25" s="94">
+      <c r="AB25" s="68">
         <v>9</v>
       </c>
-      <c r="AC25" s="95"/>
+      <c r="AC25" s="69"/>
     </row>
     <row r="26" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90">
+      <c r="A26" s="64">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="92"/>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
-      <c r="V26" s="92"/>
-      <c r="W26" s="92"/>
-      <c r="X26" s="92"/>
-      <c r="Y26" s="92"/>
-      <c r="Z26" s="92"/>
-      <c r="AA26" s="93" t="str">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB26" s="94">
+      <c r="AB26" s="68">
         <v>10</v>
       </c>
-      <c r="AC26" s="95"/>
+      <c r="AC26" s="69"/>
     </row>
     <row r="27" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="90">
+      <c r="A27" s="64">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="93" t="str">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB27" s="94">
+      <c r="AB27" s="68">
         <v>12</v>
       </c>
-      <c r="AC27" s="95"/>
+      <c r="AC27" s="69"/>
     </row>
     <row r="28" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90">
+      <c r="A28" s="64">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="92"/>
-      <c r="R28" s="92"/>
-      <c r="S28" s="92"/>
-      <c r="T28" s="92"/>
-      <c r="U28" s="92"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="92"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="92"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="93" t="str">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB28" s="94">
+      <c r="AB28" s="68">
         <v>13</v>
       </c>
-      <c r="AC28" s="95"/>
+      <c r="AC28" s="69"/>
     </row>
     <row r="29" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="90">
+      <c r="A29" s="64">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="92"/>
-      <c r="Q29" s="92"/>
-      <c r="R29" s="92"/>
-      <c r="S29" s="92"/>
-      <c r="T29" s="92"/>
-      <c r="U29" s="92"/>
-      <c r="V29" s="92"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="92"/>
-      <c r="Y29" s="92"/>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="93" t="str">
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB29" s="96">
+      <c r="AB29" s="70">
         <v>32</v>
       </c>
-      <c r="AC29" s="95"/>
+      <c r="AC29" s="69"/>
     </row>
     <row r="30" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="90">
+      <c r="A30" s="64">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B30" s="91" t="s">
+      <c r="B30" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="93" t="str">
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB30" s="96">
+      <c r="AB30" s="70">
         <v>33</v>
       </c>
-      <c r="AC30" s="95"/>
+      <c r="AC30" s="69"/>
     </row>
     <row r="31" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90">
+      <c r="A31" s="64">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="92"/>
-      <c r="J31" s="92"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="92"/>
-      <c r="Q31" s="92"/>
-      <c r="R31" s="92"/>
-      <c r="S31" s="92"/>
-      <c r="T31" s="92"/>
-      <c r="U31" s="92"/>
-      <c r="V31" s="92"/>
-      <c r="W31" s="92"/>
-      <c r="X31" s="92"/>
-      <c r="Y31" s="92"/>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="93" t="str">
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB31" s="96">
+      <c r="AB31" s="70">
         <v>34</v>
       </c>
-      <c r="AC31" s="95"/>
+      <c r="AC31" s="69"/>
     </row>
     <row r="32" spans="1:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="90">
+      <c r="A32" s="64">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B32" s="91" t="s">
+      <c r="B32" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="93" t="str">
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB32" s="94">
+      <c r="AB32" s="68">
         <v>11</v>
       </c>
-      <c r="AC32" s="95"/>
+      <c r="AC32" s="69"/>
     </row>
     <row r="33" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="90">
+      <c r="A33" s="64">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B33" s="91" t="s">
+      <c r="B33" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="93" t="str">
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB33" s="96">
+      <c r="AB33" s="70">
         <v>35</v>
       </c>
-      <c r="AC33" s="95"/>
+      <c r="AC33" s="69"/>
     </row>
     <row r="34" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90">
+      <c r="A34" s="64">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="92"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="92"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="92"/>
-      <c r="M34" s="92"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="92"/>
-      <c r="Q34" s="92"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="92"/>
-      <c r="U34" s="92"/>
-      <c r="V34" s="92"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="92"/>
-      <c r="Y34" s="92"/>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="93" t="str">
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB34" s="96">
+      <c r="AB34" s="70">
         <v>36</v>
       </c>
-      <c r="AC34" s="95"/>
+      <c r="AC34" s="69"/>
     </row>
     <row r="35" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="103"/>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="103"/>
-      <c r="U35" s="103"/>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-      <c r="Z35" s="103"/>
-      <c r="AA35" s="104"/>
-      <c r="AB35" s="105" t="s">
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="116"/>
+      <c r="AB35" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="AC35" s="95"/>
+      <c r="AC35" s="69"/>
     </row>
     <row r="36" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="90">
+      <c r="A36" s="64">
         <v>25</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="92"/>
-      <c r="V36" s="92"/>
-      <c r="W36" s="92"/>
-      <c r="X36" s="92"/>
-      <c r="Y36" s="92"/>
-      <c r="Z36" s="92"/>
-      <c r="AA36" s="93" t="str">
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB36" s="94">
+      <c r="AB36" s="68">
         <v>14</v>
       </c>
-      <c r="AC36" s="95"/>
+      <c r="AC36" s="69"/>
     </row>
     <row r="37" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="90">
+      <c r="A37" s="64">
         <f t="shared" ref="A37:A51" si="3">IF(ISERROR((A36+1)),"",(A36+1))</f>
         <v>26</v>
       </c>
-      <c r="B37" s="91" t="s">
+      <c r="B37" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="92"/>
-      <c r="H37" s="92"/>
-      <c r="I37" s="92"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="92"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="92"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="92"/>
-      <c r="R37" s="92"/>
-      <c r="S37" s="92"/>
-      <c r="T37" s="92"/>
-      <c r="U37" s="92"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="92"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="92"/>
-      <c r="Z37" s="92"/>
-      <c r="AA37" s="93" t="str">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB37" s="94">
+      <c r="AB37" s="68">
         <v>15</v>
       </c>
-      <c r="AC37" s="95"/>
+      <c r="AC37" s="69"/>
     </row>
     <row r="38" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="90">
+      <c r="A38" s="64">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="B38" s="91" t="s">
+      <c r="B38" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="92"/>
-      <c r="V38" s="92"/>
-      <c r="W38" s="92"/>
-      <c r="X38" s="92"/>
-      <c r="Y38" s="92"/>
-      <c r="Z38" s="92"/>
-      <c r="AA38" s="93" t="str">
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB38" s="94">
+      <c r="AB38" s="68">
         <v>16</v>
       </c>
-      <c r="AC38" s="95"/>
+      <c r="AC38" s="69"/>
     </row>
     <row r="39" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="90">
+      <c r="A39" s="64">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="X39" s="92"/>
-      <c r="Y39" s="92"/>
-      <c r="Z39" s="92"/>
-      <c r="AA39" s="93" t="str">
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB39" s="96">
+      <c r="AB39" s="70">
         <v>37</v>
       </c>
-      <c r="AC39" s="95"/>
+      <c r="AC39" s="69"/>
     </row>
     <row r="40" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90">
+      <c r="A40" s="64">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="B40" s="91" t="s">
+      <c r="B40" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="93" t="str">
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB40" s="94">
+      <c r="AB40" s="68">
         <v>26</v>
       </c>
-      <c r="AC40" s="95"/>
+      <c r="AC40" s="69"/>
     </row>
     <row r="41" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="90">
+      <c r="A41" s="64">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="B41" s="91" t="s">
+      <c r="B41" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="92"/>
-      <c r="U41" s="92"/>
-      <c r="V41" s="92"/>
-      <c r="W41" s="92"/>
-      <c r="X41" s="92"/>
-      <c r="Y41" s="92"/>
-      <c r="Z41" s="92"/>
-      <c r="AA41" s="93" t="str">
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB41" s="94">
+      <c r="AB41" s="68">
         <v>27</v>
       </c>
-      <c r="AC41" s="95"/>
+      <c r="AC41" s="69"/>
     </row>
     <row r="42" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="90">
+      <c r="A42" s="64">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="92"/>
-      <c r="U42" s="92"/>
-      <c r="V42" s="92"/>
-      <c r="W42" s="92"/>
-      <c r="X42" s="92"/>
-      <c r="Y42" s="92"/>
-      <c r="Z42" s="92"/>
-      <c r="AA42" s="93" t="str">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB42" s="96">
+      <c r="AB42" s="70">
         <v>38</v>
       </c>
-      <c r="AC42" s="95"/>
+      <c r="AC42" s="69"/>
     </row>
     <row r="43" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="90">
+      <c r="A43" s="64">
         <v>33</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="B43" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="92"/>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="92"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="92"/>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="93" t="str">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB43" s="96">
+      <c r="AB43" s="70">
         <v>39</v>
       </c>
-      <c r="AC43" s="95"/>
+      <c r="AC43" s="69"/>
     </row>
     <row r="44" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="90">
+      <c r="A44" s="64">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="92"/>
-      <c r="U44" s="92"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="92"/>
-      <c r="X44" s="92"/>
-      <c r="Y44" s="92"/>
-      <c r="Z44" s="92"/>
-      <c r="AA44" s="93" t="str">
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB44" s="94">
+      <c r="AB44" s="68">
         <v>17</v>
       </c>
-      <c r="AC44" s="95"/>
+      <c r="AC44" s="69"/>
     </row>
     <row r="45" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="90">
+      <c r="A45" s="64">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="B45" s="91" t="s">
+      <c r="B45" s="65" t="s">
         <v>775</v>
       </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="93" t="str">
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="66"/>
+      <c r="R45" s="66"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="66"/>
+      <c r="V45" s="66"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB45" s="94">
+      <c r="AB45" s="68">
         <v>18</v>
       </c>
-      <c r="AC45" s="95"/>
+      <c r="AC45" s="69"/>
     </row>
     <row r="46" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="90">
+      <c r="A46" s="64">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="B46" s="91" t="s">
+      <c r="B46" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="92"/>
-      <c r="U46" s="92"/>
-      <c r="V46" s="92"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="92"/>
-      <c r="Y46" s="92"/>
-      <c r="Z46" s="92"/>
-      <c r="AA46" s="93" t="str">
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+      <c r="P46" s="66"/>
+      <c r="Q46" s="66"/>
+      <c r="R46" s="66"/>
+      <c r="S46" s="66"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="66"/>
+      <c r="V46" s="66"/>
+      <c r="W46" s="66"/>
+      <c r="X46" s="66"/>
+      <c r="Y46" s="66"/>
+      <c r="Z46" s="66"/>
+      <c r="AA46" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB46" s="94">
+      <c r="AB46" s="68">
         <v>19</v>
       </c>
-      <c r="AC46" s="95"/>
+      <c r="AC46" s="69"/>
     </row>
     <row r="47" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="106" t="s">
+      <c r="B47" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="107"/>
-      <c r="N47" s="107"/>
-      <c r="O47" s="107"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="107"/>
-      <c r="U47" s="107"/>
-      <c r="V47" s="107"/>
-      <c r="W47" s="107"/>
-      <c r="X47" s="107"/>
-      <c r="Y47" s="107"/>
-      <c r="Z47" s="107"/>
-      <c r="AA47" s="108"/>
-      <c r="AB47" s="105" t="s">
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="118"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="118"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="118"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="118"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="118"/>
+      <c r="X47" s="118"/>
+      <c r="Y47" s="118"/>
+      <c r="Z47" s="118"/>
+      <c r="AA47" s="119"/>
+      <c r="AB47" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="AC47" s="95"/>
+      <c r="AC47" s="69"/>
     </row>
     <row r="48" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="90">
+      <c r="A48" s="64">
         <v>37</v>
       </c>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="65" t="s">
         <v>776</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92"/>
-      <c r="P48" s="92"/>
-      <c r="Q48" s="92"/>
-      <c r="R48" s="92"/>
-      <c r="S48" s="92"/>
-      <c r="T48" s="92"/>
-      <c r="U48" s="92"/>
-      <c r="V48" s="92"/>
-      <c r="W48" s="92"/>
-      <c r="X48" s="92"/>
-      <c r="Y48" s="92"/>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="93" t="str">
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+      <c r="P48" s="66"/>
+      <c r="Q48" s="66"/>
+      <c r="R48" s="66"/>
+      <c r="S48" s="66"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="66"/>
+      <c r="V48" s="66"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB48" s="94">
+      <c r="AB48" s="68">
         <v>20</v>
       </c>
-      <c r="AC48" s="95"/>
+      <c r="AC48" s="69"/>
     </row>
     <row r="49" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="90">
+      <c r="A49" s="64">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="65" t="s">
         <v>777</v>
       </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="92"/>
-      <c r="N49" s="92"/>
-      <c r="O49" s="92"/>
-      <c r="P49" s="92"/>
-      <c r="Q49" s="92"/>
-      <c r="R49" s="92"/>
-      <c r="S49" s="92"/>
-      <c r="T49" s="92"/>
-      <c r="U49" s="92"/>
-      <c r="V49" s="92"/>
-      <c r="W49" s="92"/>
-      <c r="X49" s="92"/>
-      <c r="Y49" s="92"/>
-      <c r="Z49" s="92"/>
-      <c r="AA49" s="93" t="str">
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+      <c r="P49" s="66"/>
+      <c r="Q49" s="66"/>
+      <c r="R49" s="66"/>
+      <c r="S49" s="66"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="66"/>
+      <c r="V49" s="66"/>
+      <c r="W49" s="66"/>
+      <c r="X49" s="66"/>
+      <c r="Y49" s="66"/>
+      <c r="Z49" s="66"/>
+      <c r="AA49" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB49" s="94">
+      <c r="AB49" s="68">
         <v>21</v>
       </c>
-      <c r="AC49" s="95"/>
+      <c r="AC49" s="69"/>
     </row>
     <row r="50" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="90">
+      <c r="A50" s="64">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="92"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="92"/>
-      <c r="P50" s="92"/>
-      <c r="Q50" s="92"/>
-      <c r="R50" s="92"/>
-      <c r="S50" s="92"/>
-      <c r="T50" s="92"/>
-      <c r="U50" s="92"/>
-      <c r="V50" s="92"/>
-      <c r="W50" s="92"/>
-      <c r="X50" s="92"/>
-      <c r="Y50" s="92"/>
-      <c r="Z50" s="92"/>
-      <c r="AA50" s="93" t="str">
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+      <c r="P50" s="66"/>
+      <c r="Q50" s="66"/>
+      <c r="R50" s="66"/>
+      <c r="S50" s="66"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="66"/>
+      <c r="V50" s="66"/>
+      <c r="W50" s="66"/>
+      <c r="X50" s="66"/>
+      <c r="Y50" s="66"/>
+      <c r="Z50" s="66"/>
+      <c r="AA50" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB50" s="94">
+      <c r="AB50" s="68">
         <v>22</v>
       </c>
-      <c r="AC50" s="95"/>
+      <c r="AC50" s="69"/>
     </row>
     <row r="51" spans="1:29" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="90">
+      <c r="A51" s="64">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="B51" s="91" t="s">
+      <c r="B51" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="92"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="92"/>
-      <c r="G51" s="92"/>
-      <c r="H51" s="92"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="92"/>
-      <c r="K51" s="92"/>
-      <c r="L51" s="92"/>
-      <c r="M51" s="92"/>
-      <c r="N51" s="92"/>
-      <c r="O51" s="92"/>
-      <c r="P51" s="92"/>
-      <c r="Q51" s="92"/>
-      <c r="R51" s="92"/>
-      <c r="S51" s="92"/>
-      <c r="T51" s="92"/>
-      <c r="U51" s="92"/>
-      <c r="V51" s="92"/>
-      <c r="W51" s="92"/>
-      <c r="X51" s="92"/>
-      <c r="Y51" s="92"/>
-      <c r="Z51" s="92"/>
-      <c r="AA51" s="93" t="str">
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
+      <c r="T51" s="66"/>
+      <c r="U51" s="66"/>
+      <c r="V51" s="66"/>
+      <c r="W51" s="66"/>
+      <c r="X51" s="66"/>
+      <c r="Y51" s="66"/>
+      <c r="Z51" s="66"/>
+      <c r="AA51" s="67" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB51" s="94">
+      <c r="AB51" s="68">
         <v>23</v>
       </c>
-      <c r="AC51" s="95" t="str">
+      <c r="AC51" s="69" t="str">
         <f>IF(AA51&gt;AA49,"VL Suppressed should not be more than VL Done","")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:29" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="90"/>
-      <c r="B52" s="109" t="s">
+      <c r="A52" s="64"/>
+      <c r="B52" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="110" t="s">
+      <c r="C52" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="107"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="107"/>
-      <c r="K52" s="107"/>
-      <c r="L52" s="107"/>
-      <c r="M52" s="107"/>
-      <c r="N52" s="107"/>
-      <c r="O52" s="107"/>
-      <c r="P52" s="107"/>
-      <c r="Q52" s="107"/>
-      <c r="R52" s="107"/>
-      <c r="S52" s="107"/>
-      <c r="T52" s="107"/>
-      <c r="U52" s="107"/>
-      <c r="V52" s="107"/>
-      <c r="W52" s="107"/>
-      <c r="X52" s="107"/>
-      <c r="Y52" s="107"/>
-      <c r="Z52" s="107"/>
-      <c r="AA52" s="111"/>
-      <c r="AB52" s="94"/>
-      <c r="AC52" s="95"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="118"/>
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="118"/>
+      <c r="V52" s="118"/>
+      <c r="W52" s="118"/>
+      <c r="X52" s="118"/>
+      <c r="Y52" s="118"/>
+      <c r="Z52" s="118"/>
+      <c r="AA52" s="121"/>
+      <c r="AB52" s="68"/>
+      <c r="AC52" s="69"/>
     </row>
     <row r="53" spans="1:29" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="32"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="36"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="128"/>
+      <c r="N53" s="128"/>
+      <c r="O53" s="128"/>
+      <c r="P53" s="128"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="128"/>
+      <c r="X53" s="128"/>
+      <c r="Y53" s="128"/>
+      <c r="Z53" s="128"/>
+      <c r="AA53" s="129"/>
       <c r="AB53" s="31"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Nrra0qBqFwEh0k2JVhhhdejKdlpVtrODTAIFfm5pNaQgGksOXsHuXgd5cF5vT2RWA8Cb76Ll/9QOKFXLSFzwrA==" saltValue="nKBqIoTAzBgyw0yfErBu6Q==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="25">
+    <mergeCell ref="B35:AA35"/>
+    <mergeCell ref="B47:AA47"/>
+    <mergeCell ref="C52:AA52"/>
+    <mergeCell ref="C53:AA53"/>
+    <mergeCell ref="C6:AA6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="B9:AA9"/>
+    <mergeCell ref="B22:AA22"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="F5:W5"/>
     <mergeCell ref="C4:E4"/>
@@ -9664,19 +9685,6 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B35:AA35"/>
-    <mergeCell ref="B47:AA47"/>
-    <mergeCell ref="C52:AA52"/>
-    <mergeCell ref="C53:AA53"/>
-    <mergeCell ref="C6:AA6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="B9:AA9"/>
-    <mergeCell ref="B22:AA22"/>
   </mergeCells>
   <conditionalFormatting sqref="C23:Z23">
     <cfRule type="notContainsBlanks" dxfId="31" priority="21">
